--- a/testgit/888.xlsx
+++ b/testgit/888.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepository\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <r>
       <rPr>
@@ -250,6 +250,14 @@
   </si>
   <si>
     <t>DN15-有线表（有阀）</t>
+  </si>
+  <si>
+    <t>dd</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddd</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -257,8 +265,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="yyyy\-dd\-mm"/>
-    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-dd\-mm"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -338,7 +346,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -379,20 +387,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -428,13 +456,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -443,7 +471,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -750,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="16.5" customHeight="1"/>
@@ -1033,6 +1067,14 @@
         <v>23</v>
       </c>
     </row>
+    <row r="7" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:P1"/>

--- a/testgit/888.xlsx
+++ b/testgit/888.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <r>
       <rPr>
@@ -257,6 +257,14 @@
   </si>
   <si>
     <t>ddd</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddf</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gggg</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -465,6 +473,12 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -472,12 +486,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -784,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="16.5" customHeight="1"/>
@@ -800,24 +808,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="161.1" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -1068,11 +1076,19 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="18" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
